--- a/命令集.xlsx
+++ b/命令集.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="测试" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>功能</t>
   </si>
@@ -124,8 +124,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 00 00 00 
-08 00 00 00 00 00 00 00 00 00 00 00 7B 18</t>
+      <t xml:space="preserve"> 00 00 00 08 00 00 00 00 00 00 00 00 00 00 00 7B 18</t>
     </r>
   </si>
   <si>
@@ -145,13 +144,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">55 00 10 80 01 00 60 </t>
     </r>
     <r>
@@ -180,13 +172,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">55 00 08 84 02 00 00 00 00 00 </t>
     </r>
     <r>
@@ -221,13 +206,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">55 00 0C 85 02 00 </t>
     </r>
     <r>
@@ -300,6 +278,9 @@
   <si>
     <t>直接用demo设置，软件不加这功能了</t>
   </si>
+  <si>
+    <t>读取不同类型的标签(返回标签id，长度)</t>
+  </si>
 </sst>
 </file>
 
@@ -308,8 +289,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -328,28 +309,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,7 +339,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,9 +370,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,28 +417,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -471,6 +431,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -501,19 +482,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,163 +662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,17 +676,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,6 +696,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,15 +732,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -763,17 +744,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,6 +764,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,139 +793,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,13 +1290,13 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C17"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="55.2545454545455" customWidth="1"/>
+    <col min="2" max="2" width="57.7272727272727" customWidth="1"/>
     <col min="3" max="3" width="61.1272727272727" customWidth="1"/>
     <col min="4" max="4" width="65.7545454545455" customWidth="1"/>
   </cols>
@@ -1332,175 +1316,175 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="39" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
+    <row r="18" ht="26" spans="1:4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="3"/>
       <c r="D18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="3"/>
       <c r="D19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" ht="39" spans="3:4">
-      <c r="C20" s="3" t="s">
+    <row r="20" ht="26" spans="3:4">
+      <c r="C20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D20" t="s">
@@ -1511,30 +1495,30 @@
       <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" ht="26" spans="1:3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D23" t="s">
@@ -1545,7 +1529,7 @@
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D24" t="s">
@@ -1556,8 +1540,8 @@
       <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
       <c r="D25" t="s">
         <v>43</v>
       </c>
@@ -1576,14 +1560,28 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
